--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y611"/>
+  <dimension ref="A1:Y613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36985,7 +36985,7 @@
       </c>
       <c r="R610" s="2" t="inlineStr"/>
     </row>
-    <row r="611">
+    <row r="611" ht="15" customHeight="1">
       <c r="A611" t="inlineStr">
         <is>
           <t>A 40354-2023</t>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37041,6 +37041,120 @@
         <v>0</v>
       </c>
       <c r="R611" s="2" t="inlineStr"/>
+    </row>
+    <row r="612" ht="15" customHeight="1">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>A 41453-2023</t>
+        </is>
+      </c>
+      <c r="B612" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C612" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>OSKARSHAMN</t>
+        </is>
+      </c>
+      <c r="G612" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0</v>
+      </c>
+      <c r="J612" t="n">
+        <v>0</v>
+      </c>
+      <c r="K612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N612" t="n">
+        <v>0</v>
+      </c>
+      <c r="O612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R612" s="2" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>A 41539-2023</t>
+        </is>
+      </c>
+      <c r="B613" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C613" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>OSKARSHAMN</t>
+        </is>
+      </c>
+      <c r="G613" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0</v>
+      </c>
+      <c r="J613" t="n">
+        <v>0</v>
+      </c>
+      <c r="K613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N613" t="n">
+        <v>0</v>
+      </c>
+      <c r="O613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R613" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y613"/>
+  <dimension ref="A1:Y614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
       </c>
       <c r="R612" s="2" t="inlineStr"/>
     </row>
-    <row r="613">
+    <row r="613" ht="15" customHeight="1">
       <c r="A613" t="inlineStr">
         <is>
           <t>A 41539-2023</t>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37155,6 +37155,63 @@
         <v>0</v>
       </c>
       <c r="R613" s="2" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>A 42341-2023</t>
+        </is>
+      </c>
+      <c r="B614" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C614" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>OSKARSHAMN</t>
+        </is>
+      </c>
+      <c r="G614" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0</v>
+      </c>
+      <c r="J614" t="n">
+        <v>0</v>
+      </c>
+      <c r="K614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N614" t="n">
+        <v>0</v>
+      </c>
+      <c r="O614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R614" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45180</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y614"/>
+  <dimension ref="A1:Y616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37156,7 +37156,7 @@
       </c>
       <c r="R613" s="2" t="inlineStr"/>
     </row>
-    <row r="614">
+    <row r="614" ht="15" customHeight="1">
       <c r="A614" t="inlineStr">
         <is>
           <t>A 42341-2023</t>
@@ -37166,7 +37166,7 @@
         <v>45180</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37212,6 +37212,120 @@
         <v>0</v>
       </c>
       <c r="R614" s="2" t="inlineStr"/>
+    </row>
+    <row r="615" ht="15" customHeight="1">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>A 42819-2023</t>
+        </is>
+      </c>
+      <c r="B615" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C615" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>OSKARSHAMN</t>
+        </is>
+      </c>
+      <c r="G615" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" t="n">
+        <v>0</v>
+      </c>
+      <c r="K615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N615" t="n">
+        <v>0</v>
+      </c>
+      <c r="O615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R615" s="2" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>A 42820-2023</t>
+        </is>
+      </c>
+      <c r="B616" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C616" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>OSKARSHAMN</t>
+        </is>
+      </c>
+      <c r="G616" t="n">
+        <v>2</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" t="n">
+        <v>0</v>
+      </c>
+      <c r="K616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N616" t="n">
+        <v>0</v>
+      </c>
+      <c r="O616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R616" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -640,31 +640,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 10600-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 10600-2023.xlsx", "A 10600-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 10600-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 10600-2023.png", "A 10600-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 10600-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 10600-2023.png", "A 10600-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 10600-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 10600-2023.docx", "A 10600-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 10600-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 10600-2023.docx", "A 10600-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 10600-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 10600-2023.docx", "A 10600-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 10600-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 10600-2023.docx", "A 10600-2023")</f>
         <v/>
       </c>
     </row>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,31 +742,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 44073-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 44073-2019.xlsx", "A 44073-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 44073-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 44073-2019.png", "A 44073-2019")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 44073-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 44073-2019.png", "A 44073-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 44073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 44073-2019.docx", "A 44073-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 44073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 44073-2019.docx", "A 44073-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 44073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 44073-2019.docx", "A 44073-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 44073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 44073-2019.docx", "A 44073-2019")</f>
         <v/>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,31 +841,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 39600-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 39600-2021.xlsx", "A 39600-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 39600-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 39600-2021.png", "A 39600-2021")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 39600-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 39600-2021.png", "A 39600-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 39600-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 39600-2021.docx", "A 39600-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 39600-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 39600-2021.docx", "A 39600-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 39600-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 39600-2021.docx", "A 39600-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 39600-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 39600-2021.docx", "A 39600-2021")</f>
         <v/>
       </c>
     </row>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,27 +943,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 60579-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 60579-2020.xlsx", "A 60579-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 60579-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 60579-2020.png", "A 60579-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 60579-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 60579-2020.docx", "A 60579-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 60579-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 60579-2020.docx", "A 60579-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 60579-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 60579-2020.docx", "A 60579-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 60579-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 60579-2020.docx", "A 60579-2020")</f>
         <v/>
       </c>
     </row>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,27 +1041,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 63570-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 63570-2020.xlsx", "A 63570-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 63570-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 63570-2020.png", "A 63570-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 63570-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 63570-2020.docx", "A 63570-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 63570-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 63570-2020.docx", "A 63570-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 63570-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 63570-2020.docx", "A 63570-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 63570-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 63570-2020.docx", "A 63570-2020")</f>
         <v/>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,27 +1133,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 52048-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 52048-2019.xlsx", "A 52048-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 52048-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 52048-2019.png", "A 52048-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 52048-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 52048-2019.docx", "A 52048-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 52048-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 52048-2019.docx", "A 52048-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 52048-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 52048-2019.docx", "A 52048-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 52048-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 52048-2019.docx", "A 52048-2019")</f>
         <v/>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,31 +1230,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 4041-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 4041-2023.xlsx", "A 4041-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 4041-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 4041-2023.png", "A 4041-2023")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 4041-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 4041-2023.png", "A 4041-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 4041-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 4041-2023.docx", "A 4041-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 4041-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 4041-2023.docx", "A 4041-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 4041-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 4041-2023.docx", "A 4041-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 4041-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 4041-2023.docx", "A 4041-2023")</f>
         <v/>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,27 +1325,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 9916-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 9916-2019.xlsx", "A 9916-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 9916-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 9916-2019.png", "A 9916-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 9916-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 9916-2019.docx", "A 9916-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 9916-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 9916-2019.docx", "A 9916-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 9916-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 9916-2019.docx", "A 9916-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 9916-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 9916-2019.docx", "A 9916-2019")</f>
         <v/>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,27 +1415,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 9921-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 9921-2019.xlsx", "A 9921-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 9921-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 9921-2019.png", "A 9921-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 9921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 9921-2019.docx", "A 9921-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 9921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 9921-2019.docx", "A 9921-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 9921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 9921-2019.docx", "A 9921-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 9921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 9921-2019.docx", "A 9921-2019")</f>
         <v/>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1505,27 +1505,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 18048-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 18048-2021.xlsx", "A 18048-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 18048-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 18048-2021.png", "A 18048-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 18048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 18048-2021.docx", "A 18048-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 18048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 18048-2021.docx", "A 18048-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 18048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 18048-2021.docx", "A 18048-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 18048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 18048-2021.docx", "A 18048-2021")</f>
         <v/>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,27 +1595,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28292-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28292-2021.xlsx", "A 28292-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28292-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28292-2021.png", "A 28292-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28292-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28292-2021.docx", "A 28292-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28292-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28292-2021.docx", "A 28292-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28292-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28292-2021.docx", "A 28292-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28292-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28292-2021.docx", "A 28292-2021")</f>
         <v/>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1685,27 +1685,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28304-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28304-2021.xlsx", "A 28304-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28304-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28304-2021.png", "A 28304-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28304-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28304-2021.docx", "A 28304-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28304-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28304-2021.docx", "A 28304-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28304-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28304-2021.docx", "A 28304-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28304-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28304-2021.docx", "A 28304-2021")</f>
         <v/>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1773,27 +1773,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 11550-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 11550-2019.xlsx", "A 11550-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 11550-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 11550-2019.png", "A 11550-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 11550-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 11550-2019.docx", "A 11550-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 11550-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 11550-2019.docx", "A 11550-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 11550-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 11550-2019.docx", "A 11550-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 11550-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 11550-2019.docx", "A 11550-2019")</f>
         <v/>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,27 +1866,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 5747-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 5747-2020.xlsx", "A 5747-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 5747-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 5747-2020.png", "A 5747-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 5747-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 5747-2020.docx", "A 5747-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 5747-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 5747-2020.docx", "A 5747-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 5747-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 5747-2020.docx", "A 5747-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 5747-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 5747-2020.docx", "A 5747-2020")</f>
         <v/>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,27 +1954,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28301-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28301-2021.xlsx", "A 28301-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28301-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28301-2021.png", "A 28301-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28301-2021.docx", "A 28301-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28301-2021.docx", "A 28301-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28301-2021.docx", "A 28301-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28301-2021.docx", "A 28301-2021")</f>
         <v/>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2042,27 +2042,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28297-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28297-2021.xlsx", "A 28297-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28297-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28297-2021.png", "A 28297-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28297-2021.docx", "A 28297-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28297-2021.docx", "A 28297-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28297-2021.docx", "A 28297-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28297-2021.docx", "A 28297-2021")</f>
         <v/>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,31 +2135,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 1650-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 1650-2022.xlsx", "A 1650-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 1650-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 1650-2022.png", "A 1650-2022")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 1650-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 1650-2022.png", "A 1650-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 1650-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 1650-2022.docx", "A 1650-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 1650-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 1650-2022.docx", "A 1650-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 1650-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 1650-2022.docx", "A 1650-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 1650-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 1650-2022.docx", "A 1650-2022")</f>
         <v/>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,31 +2226,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 10069-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 10069-2020.xlsx", "A 10069-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 10069-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 10069-2020.png", "A 10069-2020")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 10069-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 10069-2020.png", "A 10069-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 10069-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 10069-2020.docx", "A 10069-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 10069-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 10069-2020.docx", "A 10069-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 10069-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 10069-2020.docx", "A 10069-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 10069-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 10069-2020.docx", "A 10069-2020")</f>
         <v/>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,27 +2316,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 16358-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 16358-2019.xlsx", "A 16358-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 16358-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 16358-2019.png", "A 16358-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 16358-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 16358-2019.docx", "A 16358-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 16358-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 16358-2019.docx", "A 16358-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 16358-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 16358-2019.docx", "A 16358-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 16358-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 16358-2019.docx", "A 16358-2019")</f>
         <v/>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2402,27 +2402,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 62745-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 62745-2020.xlsx", "A 62745-2020")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 62745-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 62745-2020.png", "A 62745-2020")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 62745-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 62745-2020.docx", "A 62745-2020")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 62745-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 62745-2020.docx", "A 62745-2020")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 62745-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 62745-2020.docx", "A 62745-2020")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 62745-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 62745-2020.docx", "A 62745-2020")</f>
         <v/>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2488,27 +2488,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 24774-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 24774-2021.xlsx", "A 24774-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 24774-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 24774-2021.png", "A 24774-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 24774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 24774-2021.docx", "A 24774-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 24774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 24774-2021.docx", "A 24774-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 24774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 24774-2021.docx", "A 24774-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 24774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 24774-2021.docx", "A 24774-2021")</f>
         <v/>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,27 +2574,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 65169-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 65169-2021.xlsx", "A 65169-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 65169-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 65169-2021.png", "A 65169-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 65169-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 65169-2021.docx", "A 65169-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 65169-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 65169-2021.docx", "A 65169-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 65169-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 65169-2021.docx", "A 65169-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 65169-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 65169-2021.docx", "A 65169-2021")</f>
         <v/>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,27 +2660,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 73602-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 73602-2021.xlsx", "A 73602-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 73602-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 73602-2021.png", "A 73602-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 73602-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 73602-2021.docx", "A 73602-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 73602-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 73602-2021.docx", "A 73602-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 73602-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 73602-2021.docx", "A 73602-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 73602-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 73602-2021.docx", "A 73602-2021")</f>
         <v/>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,27 +2746,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 30933-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 30933-2023.xlsx", "A 30933-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 30933-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 30933-2023.png", "A 30933-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 30933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 30933-2023.docx", "A 30933-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 30933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 30933-2023.docx", "A 30933-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 30933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 30933-2023.docx", "A 30933-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 30933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 30933-2023.docx", "A 30933-2023")</f>
         <v/>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2836,27 +2836,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 60463-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 60463-2018.xlsx", "A 60463-2018")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 60463-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 60463-2018.png", "A 60463-2018")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 60463-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 60463-2018.docx", "A 60463-2018")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 60463-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 60463-2018.docx", "A 60463-2018")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 60463-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 60463-2018.docx", "A 60463-2018")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 60463-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 60463-2018.docx", "A 60463-2018")</f>
         <v/>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2926,27 +2926,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 36542-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 36542-2019.xlsx", "A 36542-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 36542-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 36542-2019.png", "A 36542-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 36542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 36542-2019.docx", "A 36542-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 36542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 36542-2019.docx", "A 36542-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 36542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 36542-2019.docx", "A 36542-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 36542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 36542-2019.docx", "A 36542-2019")</f>
         <v/>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3016,27 +3016,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 36540-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 36540-2019.xlsx", "A 36540-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 36540-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 36540-2019.png", "A 36540-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 36540-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 36540-2019.docx", "A 36540-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 36540-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 36540-2019.docx", "A 36540-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 36540-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 36540-2019.docx", "A 36540-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 36540-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 36540-2019.docx", "A 36540-2019")</f>
         <v/>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3101,27 +3101,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 38830-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 38830-2020.xlsx", "A 38830-2020")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 38830-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 38830-2020.png", "A 38830-2020")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 38830-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 38830-2020.docx", "A 38830-2020")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 38830-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 38830-2020.docx", "A 38830-2020")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 38830-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 38830-2020.docx", "A 38830-2020")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 38830-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 38830-2020.docx", "A 38830-2020")</f>
         <v/>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3186,27 +3186,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 42248-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 42248-2020.xlsx", "A 42248-2020")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 42248-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 42248-2020.png", "A 42248-2020")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 42248-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 42248-2020.docx", "A 42248-2020")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 42248-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 42248-2020.docx", "A 42248-2020")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 42248-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 42248-2020.docx", "A 42248-2020")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 42248-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 42248-2020.docx", "A 42248-2020")</f>
         <v/>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3271,27 +3271,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 12329-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 12329-2021.xlsx", "A 12329-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 12329-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 12329-2021.png", "A 12329-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 12329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 12329-2021.docx", "A 12329-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 12329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 12329-2021.docx", "A 12329-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 12329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 12329-2021.docx", "A 12329-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 12329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 12329-2021.docx", "A 12329-2021")</f>
         <v/>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3361,27 +3361,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 25380-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 25380-2021.xlsx", "A 25380-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 25380-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 25380-2021.png", "A 25380-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 25380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 25380-2021.docx", "A 25380-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 25380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 25380-2021.docx", "A 25380-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 25380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 25380-2021.docx", "A 25380-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 25380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 25380-2021.docx", "A 25380-2021")</f>
         <v/>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3446,27 +3446,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 25677-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 25677-2021.xlsx", "A 25677-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 25677-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 25677-2021.png", "A 25677-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 25677-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 25677-2021.docx", "A 25677-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 25677-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 25677-2021.docx", "A 25677-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 25677-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 25677-2021.docx", "A 25677-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 25677-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 25677-2021.docx", "A 25677-2021")</f>
         <v/>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3531,27 +3531,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28298-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28298-2021.xlsx", "A 28298-2021")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28298-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28298-2021.png", "A 28298-2021")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28298-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28298-2021.docx", "A 28298-2021")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28298-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28298-2021.docx", "A 28298-2021")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28298-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28298-2021.docx", "A 28298-2021")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28298-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28298-2021.docx", "A 28298-2021")</f>
         <v/>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3616,27 +3616,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28299-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 28299-2021.xlsx", "A 28299-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28299-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 28299-2021.png", "A 28299-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 28299-2021.docx", "A 28299-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 28299-2021.docx", "A 28299-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 28299-2021.docx", "A 28299-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 28299-2021.docx", "A 28299-2021")</f>
         <v/>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3701,27 +3701,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 33837-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 33837-2021.xlsx", "A 33837-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 33837-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 33837-2021.png", "A 33837-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 33837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 33837-2021.docx", "A 33837-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 33837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 33837-2021.docx", "A 33837-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 33837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 33837-2021.docx", "A 33837-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 33837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 33837-2021.docx", "A 33837-2021")</f>
         <v/>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3786,27 +3786,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 42374-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 42374-2021.xlsx", "A 42374-2021")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 42374-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 42374-2021.png", "A 42374-2021")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 42374-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 42374-2021.docx", "A 42374-2021")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 42374-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 42374-2021.docx", "A 42374-2021")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 42374-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 42374-2021.docx", "A 42374-2021")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 42374-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 42374-2021.docx", "A 42374-2021")</f>
         <v/>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3871,27 +3871,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 52162-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 52162-2021.xlsx", "A 52162-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 52162-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 52162-2021.png", "A 52162-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 52162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 52162-2021.docx", "A 52162-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 52162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 52162-2021.docx", "A 52162-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 52162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 52162-2021.docx", "A 52162-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 52162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 52162-2021.docx", "A 52162-2021")</f>
         <v/>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3956,27 +3956,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 59683-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 59683-2021.xlsx", "A 59683-2021")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 59683-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 59683-2021.png", "A 59683-2021")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 59683-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 59683-2021.docx", "A 59683-2021")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 59683-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 59683-2021.docx", "A 59683-2021")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 59683-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 59683-2021.docx", "A 59683-2021")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 59683-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 59683-2021.docx", "A 59683-2021")</f>
         <v/>
       </c>
     </row>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4046,27 +4046,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 9518-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 9518-2022.xlsx", "A 9518-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 9518-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 9518-2022.png", "A 9518-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 9518-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 9518-2022.docx", "A 9518-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 9518-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 9518-2022.docx", "A 9518-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 9518-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 9518-2022.docx", "A 9518-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 9518-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 9518-2022.docx", "A 9518-2022")</f>
         <v/>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4131,27 +4131,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 32030-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 32030-2022.xlsx", "A 32030-2022")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 32030-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 32030-2022.png", "A 32030-2022")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 32030-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 32030-2022.docx", "A 32030-2022")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 32030-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 32030-2022.docx", "A 32030-2022")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 32030-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 32030-2022.docx", "A 32030-2022")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 32030-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 32030-2022.docx", "A 32030-2022")</f>
         <v/>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4216,27 +4216,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 33241-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 33241-2022.xlsx", "A 33241-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 33241-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 33241-2022.png", "A 33241-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 33241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 33241-2022.docx", "A 33241-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 33241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 33241-2022.docx", "A 33241-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 33241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 33241-2022.docx", "A 33241-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 33241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 33241-2022.docx", "A 33241-2022")</f>
         <v/>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4301,27 +4301,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 40258-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 40258-2022.xlsx", "A 40258-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 40258-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 40258-2022.png", "A 40258-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 40258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 40258-2022.docx", "A 40258-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 40258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 40258-2022.docx", "A 40258-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 40258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 40258-2022.docx", "A 40258-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 40258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 40258-2022.docx", "A 40258-2022")</f>
         <v/>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4386,27 +4386,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 48442-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 48442-2022.xlsx", "A 48442-2022")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 48442-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 48442-2022.png", "A 48442-2022")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 48442-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 48442-2022.docx", "A 48442-2022")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 48442-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 48442-2022.docx", "A 48442-2022")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 48442-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 48442-2022.docx", "A 48442-2022")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 48442-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 48442-2022.docx", "A 48442-2022")</f>
         <v/>
       </c>
     </row>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4471,27 +4471,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 17193-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/artfynd/A 17193-2023.xlsx", "A 17193-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 17193-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/kartor/A 17193-2023.png", "A 17193-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 17193-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 17193-2023.docx", "A 17193-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 17193-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 17193-2023.docx", "A 17193-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 17193-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 17193-2023.docx", "A 17193-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 17193-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 17193-2023.docx", "A 17193-2023")</f>
         <v/>
       </c>
     </row>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35711,23 +35711,23 @@
       </c>
       <c r="R588" s="2" t="inlineStr"/>
       <c r="U588">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 29190-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/knärot/A 29190-2023.png", "A 29190-2023")</f>
         <v/>
       </c>
       <c r="V588">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 29190-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomål/A 29190-2023.docx", "A 29190-2023")</f>
         <v/>
       </c>
       <c r="W588">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 29190-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/klagomålsmail/A 29190-2023.docx", "A 29190-2023")</f>
         <v/>
       </c>
       <c r="X588">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 29190-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsyn/A 29190-2023.docx", "A 29190-2023")</f>
         <v/>
       </c>
       <c r="Y588">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 29190-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSKARSHAMN/tillsynsmail/A 29190-2023.docx", "A 29190-2023")</f>
         <v/>
       </c>
     </row>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45180</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45182</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45182</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45180</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45182</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45182</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45180</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45182</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45182</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y616"/>
+  <dimension ref="A1:Y617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45180</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45182</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37270,7 +37270,7 @@
       </c>
       <c r="R615" s="2" t="inlineStr"/>
     </row>
-    <row r="616">
+    <row r="616" ht="15" customHeight="1">
       <c r="A616" t="inlineStr">
         <is>
           <t>A 42820-2023</t>
@@ -37280,7 +37280,7 @@
         <v>45182</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37326,6 +37326,63 @@
         <v>0</v>
       </c>
       <c r="R616" s="2" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>A 44035-2023</t>
+        </is>
+      </c>
+      <c r="B617" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C617" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>OSKARSHAMN</t>
+        </is>
+      </c>
+      <c r="G617" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" t="n">
+        <v>0</v>
+      </c>
+      <c r="K617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N617" t="n">
+        <v>0</v>
+      </c>
+      <c r="O617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R617" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45180</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45182</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45182</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>45188</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y617"/>
+  <dimension ref="A1:Y620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45180</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45182</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45182</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37327,7 +37327,7 @@
       </c>
       <c r="R616" s="2" t="inlineStr"/>
     </row>
-    <row r="617">
+    <row r="617" ht="15" customHeight="1">
       <c r="A617" t="inlineStr">
         <is>
           <t>A 44035-2023</t>
@@ -37337,7 +37337,7 @@
         <v>45188</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37383,6 +37383,177 @@
         <v>0</v>
       </c>
       <c r="R617" s="2" t="inlineStr"/>
+    </row>
+    <row r="618" ht="15" customHeight="1">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>A 46068-2023</t>
+        </is>
+      </c>
+      <c r="B618" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C618" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>OSKARSHAMN</t>
+        </is>
+      </c>
+      <c r="G618" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>0</v>
+      </c>
+      <c r="K618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N618" t="n">
+        <v>0</v>
+      </c>
+      <c r="O618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R618" s="2" t="inlineStr"/>
+    </row>
+    <row r="619" ht="15" customHeight="1">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>A 46605-2023</t>
+        </is>
+      </c>
+      <c r="B619" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C619" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>OSKARSHAMN</t>
+        </is>
+      </c>
+      <c r="G619" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0</v>
+      </c>
+      <c r="J619" t="n">
+        <v>0</v>
+      </c>
+      <c r="K619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N619" t="n">
+        <v>0</v>
+      </c>
+      <c r="O619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R619" s="2" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>A 46603-2023</t>
+        </is>
+      </c>
+      <c r="B620" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C620" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>OSKARSHAMN</t>
+        </is>
+      </c>
+      <c r="G620" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J620" t="n">
+        <v>0</v>
+      </c>
+      <c r="K620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N620" t="n">
+        <v>0</v>
+      </c>
+      <c r="O620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R620" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43447</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43447</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43447</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43465</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43465</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43469</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>43471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>43472</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43478</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43485</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43486</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43486</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43493</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43509</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43516</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43528</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43529</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43536</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43542</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43549</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43552</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43552</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43567</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43595</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43608</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43608</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43619</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43630</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43633</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43640</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43640</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43641</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43644</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43647</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43648</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43648</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43649</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43649</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>43657</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43657</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43657</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43657</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43665</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43665</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43665</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43669</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43675</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43675</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43675</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43675</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43675</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43676</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43696</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43698</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43698</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43699</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43706</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43707</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43713</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43726</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43732</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43737</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43745</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43749</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43758</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43759</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43761</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43767</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43774</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43774</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43775</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43780</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43787</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43787</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>43787</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>43797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>43797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43801</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43805</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43809</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43809</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43809</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43809</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>43810</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43818</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43818</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43835</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43840</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43843</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43843</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>43846</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>43851</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>43851</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>43851</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>43851</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>43853</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>43860</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>43860</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43864</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43864</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>43873</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>43875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>43875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43882</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43882</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>43883</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43886</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43899</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43899</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43901</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43901</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43907</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43920</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43921</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43927</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43930</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>43937</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>43938</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43945</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>43951</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>43955</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>43962</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>43970</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>43976</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>43976</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43976</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43976</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43993</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43993</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44002</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44012</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44014</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44014</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44028</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44053</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44057</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44071</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44081</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44081</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44083</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44083</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44099</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44099</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44102</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44102</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44103</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44105</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44106</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44106</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44109</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44109</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44110</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44118</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44127</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44127</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44127</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44130</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44133</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44139</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44144</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44153</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44153</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44154</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44154</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44165</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44168</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44168</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44168</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44181</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44181</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44181</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44186</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44208</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44211</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44232</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44245</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44245</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44245</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44251</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44251</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>44252</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>44253</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>44261</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44263</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44272</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44272</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44298</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44313</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44315</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44315</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44320</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44335</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44342</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44342</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44348</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44348</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44350</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44355</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44356</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44377</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44406</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44426</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44426</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44426</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44428</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44440</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44443</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44446</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44446</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44452</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44455</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44455</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44461</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44469</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44477</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44483</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>44488</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>44488</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44488</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44489</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44489</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44489</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>44490</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44501</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>44505</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>44515</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44516</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44517</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44524</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44538</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44539</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44544</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>44547</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44547</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44573</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44573</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>44575</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44580</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44587</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>44593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44595</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44596</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44603</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44608</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44613</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44613</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44616</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44620</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44627</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44656</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44657</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44663</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44664</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44677</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44677</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44683</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44683</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44697</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44711</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44713</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44713</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>44726</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>44743</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>44754</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>44755</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44761</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44762</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44762</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44763</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44774</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>44781</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44785</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44789</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44789</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>44791</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>44806</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44817</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44818</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44818</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44818</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>44818</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44818</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>44818</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44818</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44818</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44820</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44820</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44820</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44841</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44860</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44861</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44862</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44862</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44865</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44865</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44865</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44865</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44872</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44873</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44879</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44900</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44908</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44917</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44945</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44946</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44946</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44946</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44951</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44965</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44970</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44973</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44973</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44973</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44974</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44987</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44993</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44993</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45002</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45002</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45002</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45008</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45012</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45012</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45012</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45016</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45019</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45019</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45021</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45022</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45022</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45034</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45034</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45034</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45051</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45056</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45058</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45063</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45063</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45063</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45063</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45070</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45075</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45075</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45078</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45078</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45091</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45092</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45096</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45097</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45098</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45099</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45110</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45110</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45110</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45110</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45112</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45113</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45113</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45113</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45113</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45113</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>45148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45154</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45159</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45164</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45168</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45168</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45169</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45169</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45175</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>45175</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45180</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45182</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45182</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>45188</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>45196</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37451,7 +37451,7 @@
         <v>45198</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37508,7 +37508,7 @@
         <v>45198</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43710</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>44153</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43517</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43863</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43883</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43545</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44161</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44340</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44515</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44267</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44343</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44463</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44616</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44786</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44820</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45034</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43335</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43335</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43335</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43339</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43340</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43402</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43403</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43421</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43422</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+   